--- a/data/new_PCA_result/CNN_good_performance_models.xlsx
+++ b/data/new_PCA_result/CNN_good_performance_models.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Software\stat4012-group-project\data\new_PCA_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FF6EC3E-831B-4E6F-B390-844035A9D17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219C0A96-E73E-4D75-AD0A-28A890EF2C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FB0C4217-ECC7-44EB-99BA-95533D7E3B88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{FB0C4217-ECC7-44EB-99BA-95533D7E3B88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Back Testing" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>CNN Good Performance Models</t>
   </si>
@@ -54,12 +55,30 @@
   </si>
   <si>
     <t>PCA on Normalized Data</t>
+  </si>
+  <si>
+    <t>Trading Strategy</t>
+  </si>
+  <si>
+    <t>60% cash</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Exposure for Every Trade</t>
+  </si>
+  <si>
+    <t>Commission Fee Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -117,22 +136,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -451,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979B0C41-4CE6-4FA3-84F2-C2FA5E032B5D}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -464,66 +501,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -534,4 +571,57 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0956E150-4E56-441D-9389-500B2C62B75A}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>100000</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>